--- a/work/TMF/Pentest/Pentest-Plan.xlsx
+++ b/work/TMF/Pentest/Pentest-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGabr\PowerShell\work\TMF\Pentest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABA76B9-AA09-432E-BB66-5BF22C0B71D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF5B9F-7666-45C3-891C-72F55DF71FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="19335" windowHeight="11760" xr2:uid="{B3908D5B-F8D1-405A-A0A3-F9B2C713C650}"/>
+    <workbookView xWindow="-585" yWindow="2310" windowWidth="14670" windowHeight="8205" xr2:uid="{B3908D5B-F8D1-405A-A0A3-F9B2C713C650}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Network Service</t>
   </si>
@@ -139,12 +139,6 @@
   </si>
   <si>
     <t>Machine Number</t>
-  </si>
-  <si>
-    <t>Hosts</t>
-  </si>
-  <si>
-    <t>10.10.80.21, 10.10.80.22, 10.10.80.24, 10.10.80.40, 10.10.80.60, 10.10.80.62, 10.10.80.90, 10.10.80.120, 10.10.80.121, 10.10.80.146, 10.10.80.196</t>
   </si>
   <si>
     <t>Test Results</t>
@@ -565,23 +559,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99167F66-FBAF-4BEB-B135-B260A92CA405}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,302 +582,275 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>16</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/TMF/Pentest/Pentest-Plan.xlsx
+++ b/work/TMF/Pentest/Pentest-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGabr\PowerShell\work\TMF\Pentest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF5B9F-7666-45C3-891C-72F55DF71FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B70AA96-CD18-4DDB-B661-7D1F890899C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-585" yWindow="2310" windowWidth="14670" windowHeight="8205" xr2:uid="{B3908D5B-F8D1-405A-A0A3-F9B2C713C650}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="19335" windowHeight="11760" xr2:uid="{B3908D5B-F8D1-405A-A0A3-F9B2C713C650}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Network Service</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>ManageEngine Desktop Central</t>
+  </si>
+  <si>
+    <t>Tested?</t>
+  </si>
+  <si>
+    <t>Partially</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -559,298 +568,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99167F66-FBAF-4BEB-B135-B260A92CA405}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work/TMF/Pentest/Pentest-Plan.xlsx
+++ b/work/TMF/Pentest/Pentest-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGabr\PowerShell\work\TMF\Pentest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B70AA96-CD18-4DDB-B661-7D1F890899C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB4DE2-C3DF-4E7B-AA9B-D821626ACD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="19335" windowHeight="11760" xr2:uid="{B3908D5B-F8D1-405A-A0A3-F9B2C713C650}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Network Service</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>BF + Research + LLMNR/NBTNS</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +611,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C2" s="2">
         <v>20</v>
       </c>
@@ -619,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>17</v>
@@ -638,7 +646,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -647,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>13</v>
@@ -676,7 +684,9 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="2">
         <v>9</v>
       </c>
@@ -875,7 +885,9 @@
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>

--- a/work/TMF/Pentest/Pentest-Plan.xlsx
+++ b/work/TMF/Pentest/Pentest-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGabr\PowerShell\work\TMF\Pentest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB4DE2-C3DF-4E7B-AA9B-D821626ACD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ADA83B-2DE4-42B2-81F1-96480ABEA55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="19335" windowHeight="11760" xr2:uid="{B3908D5B-F8D1-405A-A0A3-F9B2C713C650}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Network Service</t>
   </si>
@@ -150,16 +150,16 @@
     <t>Tested?</t>
   </si>
   <si>
-    <t>Partially</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>BF + Research + LLMNR/NBTNS</t>
+  </si>
+  <si>
+    <t>Yes + MAJOR KILL</t>
+  </si>
+  <si>
+    <t>Partial</t>
   </si>
 </sst>
 </file>
@@ -576,9 +576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99167F66-FBAF-4BEB-B135-B260A92CA405}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>17</v>
@@ -641,12 +641,14 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C4" s="2">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -655,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>13</v>
@@ -670,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>11</v>
@@ -713,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
@@ -754,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -886,7 +888,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>

--- a/work/TMF/Pentest/Pentest-Plan.xlsx
+++ b/work/TMF/Pentest/Pentest-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGabr\PowerShell\work\TMF\Pentest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ADA83B-2DE4-42B2-81F1-96480ABEA55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DDA6A1-4B27-486A-9BAE-D7B3045C2564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="19335" windowHeight="11760" xr2:uid="{B3908D5B-F8D1-405A-A0A3-F9B2C713C650}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Network Service</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Partial</t>
+  </si>
+  <si>
+    <t>Yes + Big Kill</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +732,9 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -770,7 +775,9 @@
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
